--- a/biology/Botanique/Hymenocallis_littoralis/Hymenocallis_littoralis.xlsx
+++ b/biology/Botanique/Hymenocallis_littoralis/Hymenocallis_littoralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenocallis littoralis, l'Hyménocalle littoral ou lys araignée, est une espèce végétale de la famille des Amaryllidaceae, originaire des régions côtières plus chaudes d’Amérique latine, largement cultivée et naturalisée dans de nombreux pays tropicaux.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hymenocallis littoralis est une plante herbacée vivace bulbeuse. Sa hauteur varie de 60 à 70 cm. Le bulbe a un diamètre de 7 à 10 cm (3-4 pouces). Avec l’âge, le bulbe développe une tige atteignant 4–5 cm de diamètre. Les fleurs sont grandes, blanches, parfumées à la vanille et sessiles. Les tépales sont fixés à la coupe staminale. Le tube de chaque fleur mesure entre 14 et 17 cm de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hymenocallis littoralis est une plante herbacée vivace bulbeuse. Sa hauteur varie de 60 à 70 cm. Le bulbe a un diamètre de 7 à 10 cm (3-4 pouces). Avec l’âge, le bulbe développe une tige atteignant 4–5 cm de diamètre. Les fleurs sont grandes, blanches, parfumées à la vanille et sessiles. Les tépales sont fixés à la coupe staminale. Le tube de chaque fleur mesure entre 14 et 17 cm de long.
 </t>
         </is>
       </c>
